--- a/Documents/3. 회의록/2024-01-22 회의록.xlsx
+++ b/Documents/3. 회의록/2024-01-22 회의록.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EZEN_AWS_JAVA_SPRING\TeamProject\3. 2차 프로젝트\B조 베가웍스\회의록\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\3. 회의록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3905DC-28CD-4DB9-8C27-6CE49EB55DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28165235-1FF5-4237-A227-BB4F0A85D2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="900" windowWidth="22785" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1410" windowWidth="15435" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회의록" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소속</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024년 01월 22일 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,6 +220,10 @@
   </si>
   <si>
     <t xml:space="preserve">    - 콜라보레이터 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 01월 22일 (월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,6 +645,66 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,66 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,7 +1055,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="I8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,26 +1080,26 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
@@ -1118,12 +1114,12 @@
       <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -1136,12 +1132,12 @@
       <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="22" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -1154,10 +1150,10 @@
       <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
@@ -1169,50 +1165,50 @@
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="30"/>
+      <c r="K7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="32"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="34" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
@@ -1220,44 +1216,44 @@
       <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
@@ -1274,12 +1270,12 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="31"/>
+      <c r="B12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="29"/>
       <c r="D12" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
@@ -1320,7 +1316,7 @@
     <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1403,132 +1399,132 @@
     <row r="25" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
       <c r="C25" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M28" s="7"/>
-      <c r="S28" s="41"/>
+      <c r="S28" s="19"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B29" s="6"/>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M29" s="7"/>
-      <c r="S29" s="41"/>
+      <c r="S29" s="19"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M30" s="7"/>
-      <c r="S30" s="41"/>
+      <c r="S30" s="19"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B31" s="6"/>
-      <c r="C31" s="41" t="s">
-        <v>34</v>
+      <c r="C31" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="M31" s="7"/>
-      <c r="S31" s="41"/>
+      <c r="S31" s="19"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B32" s="6"/>
-      <c r="C32" s="41" t="s">
-        <v>28</v>
+      <c r="C32" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="M32" s="7"/>
-      <c r="S32" s="41"/>
+      <c r="S32" s="19"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B33" s="6"/>
-      <c r="C33" s="41" t="s">
-        <v>29</v>
+      <c r="C33" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="M33" s="7"/>
-      <c r="S33" s="41"/>
+      <c r="S33" s="19"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
-      <c r="C34" s="41" t="s">
-        <v>30</v>
+      <c r="C34" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="M34" s="7"/>
-      <c r="S34" s="41"/>
+      <c r="S34" s="19"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
-      <c r="C35" s="41" t="s">
-        <v>31</v>
+      <c r="C35" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="M35" s="7"/>
-      <c r="S35" s="41"/>
+      <c r="S35" s="19"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
-      <c r="C36" s="41" t="s">
-        <v>37</v>
+      <c r="C36" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="M36" s="7"/>
-      <c r="S36" s="41"/>
+      <c r="S36" s="19"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B37" s="6"/>
-      <c r="C37" s="41"/>
+      <c r="C37" s="19"/>
       <c r="M37" s="7"/>
-      <c r="S37" s="41"/>
+      <c r="S37" s="19"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B38" s="6"/>
-      <c r="C38" s="41" t="s">
-        <v>32</v>
+      <c r="C38" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B39" s="6"/>
-      <c r="C39" s="41" t="s">
-        <v>33</v>
+      <c r="C39" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B40" s="6"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="19"/>
       <c r="M40" s="7"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B41" s="6"/>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B42" s="6"/>
       <c r="C42" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M42" s="7"/>
     </row>
@@ -1539,14 +1535,14 @@
     <row r="44" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B44" s="6"/>
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M44" s="7"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B45" s="6"/>
       <c r="C45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M45" s="7"/>
     </row>
@@ -1557,14 +1553,14 @@
     <row r="47" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B47" s="6"/>
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M47" s="7"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M48" s="7"/>
     </row>
@@ -1575,14 +1571,14 @@
     <row r="50" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B50" s="6"/>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B51" s="6"/>
       <c r="C51" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M51" s="7"/>
     </row>
@@ -1610,13 +1606,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="D5:M5"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="D6:G6"/>
@@ -1633,13 +1629,13 @@
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="D12:M12"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:M10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.43307086614173229" top="0.94488188976377963" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
